--- a/files/orders.xlsx
+++ b/files/orders.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Muriel\Python\Meus Projetos\rpa_challenge\files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0AA13DF0-F5F7-4F44-8F33-7CC5D89C1E67}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F9FB3F9-7259-405C-AADC-F59A96ACD964}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="303" uniqueCount="209">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="300" uniqueCount="207">
   <si>
     <t>Nome</t>
   </si>
@@ -641,12 +641,6 @@
   </si>
   <si>
     <t>arthur-miguelfarias@example.net</t>
-  </si>
-  <si>
-    <t>Bruno Castro</t>
-  </si>
-  <si>
-    <t>mendesyan@example.org</t>
   </si>
 </sst>
 </file>
@@ -1009,10 +1003,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E101"/>
+  <dimension ref="A1:E100"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K16" sqref="K16"/>
+    <sheetView tabSelected="1" topLeftCell="A68" workbookViewId="0">
+      <selection activeCell="A102" sqref="A102"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2711,23 +2705,6 @@
         <v>200</v>
       </c>
     </row>
-    <row r="101" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A101" t="s">
-        <v>207</v>
-      </c>
-      <c r="B101" t="s">
-        <v>208</v>
-      </c>
-      <c r="C101" t="s">
-        <v>7</v>
-      </c>
-      <c r="D101">
-        <v>3</v>
-      </c>
-      <c r="E101">
-        <v>80</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
